--- a/data/storms_table_for_Quarterly_Report.xlsx
+++ b/data/storms_table_for_Quarterly_Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petrinec_k\Downloads\2024_Q1-Q3_SWMP_Quarterly_Report-main\2024_Q1-Q3_SWMP_Quarterly_Report-main\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petrinec_k\Desktop\2024_Q1-Q4_SWMP_Quarterly_Report-main- Copy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA61FBC8-83EB-43E9-9D25-1F0056764D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639B1856-941A-4799-82CC-3CAB8CE674FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{22281743-99B9-47E0-93AE-3718640ED800}"/>
+    <workbookView xWindow="7650" yWindow="540" windowWidth="13710" windowHeight="10590" xr2:uid="{22281743-99B9-47E0-93AE-3718640ED800}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="68">
   <si>
     <t>Year</t>
   </si>
@@ -234,6 +234,12 @@
   </si>
   <si>
     <t>Ave Wind Direction (Degrees)</t>
+  </si>
+  <si>
+    <t>H Milton</t>
+  </si>
+  <si>
+    <t>10/09 – 10/10</t>
   </si>
 </sst>
 </file>
@@ -649,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B78401-F509-42EB-B7BC-BDB96352E356}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1316,6 +1322,32 @@
         <v>56</v>
       </c>
     </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="7">
+        <v>185.7</v>
+      </c>
+      <c r="E26" s="7">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F26" s="7">
+        <v>26.1</v>
+      </c>
+      <c r="G26" s="7">
+        <v>85</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
